--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -575,7 +575,7 @@
         <v>44441</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45869</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>45629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45453</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45140.8359375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45833</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45862.44428240741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45960.39149305555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45722.35415509259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45967</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45049.84429398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44455.63979166667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>45454</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>45946.45868055556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44909</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44420</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>45763.75976851852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44482</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45063</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45517.53916666667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44829.83217592593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>45420.29810185185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45540</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>45225</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>45653.4256712963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>45225</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44826</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>45726</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45401.2678125</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45999.44971064815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45607</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>46009.62458333333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45226.58356481481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>45553.40890046296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>45441.56653935185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>45109</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>45579.39178240741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45609</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>45517.37303240741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>45527</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45785.64866898148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>44882.2475462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44329.35565972222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44316</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44417.59931712963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44613.67759259259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>44377.67195601852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>44414</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44787</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44414</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>44571</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44355.38730324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>44735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44809.39690972222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44803.5709375</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44264.3809837963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>44462</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44305</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44496</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>44691.324375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>44278.85092592592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>44641.34217592593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>44261</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>44861</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>44342.57887731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>44776</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44307</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44713</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44809.39892361111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44637.62076388889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44706</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44735.57864583333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44342</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44876.60767361111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44260</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44312.37478009259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44496.44542824074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44291</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44832</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44342.64690972222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>44475.49350694445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>44414</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44321.48372685185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44461</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44826</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44434.62304398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44286.46900462963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44440</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>44431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>44537.69876157407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44509.39956018519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44563</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44791.8230787037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44298.36966435185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44467.60453703703</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44496</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44390.62594907408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44656.67989583333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44509.40319444444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44525</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44734.54008101852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44608</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44305</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44799</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44496.40109953703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44442.39803240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44496</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>44804.87157407407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44308.45027777777</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44442.39701388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>44778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44784.70158564814</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>44630</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44803.57310185185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44714</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44403</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44496</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44861</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44811</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44876.95594907407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44545.57009259259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44469</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44574</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44434.63518518519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44770.43327546296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44531.80703703704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44319</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44792.4921412037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44791.67481481482</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>44581</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>44831</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45429.40702546296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45469.48158564815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>45462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44880.39084490741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44876.94532407408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45517.56828703704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>45153</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44718</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44855</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45107.56135416667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45527</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>45252</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>45205.48114583334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44683.53989583333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>45219.38086805555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45684.52469907407</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44700</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44414</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>45517.56021990741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44496</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45172</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45757.37561342592</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>45588.38447916666</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>45588.3869212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44860.72960648148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44568</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>45064</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>45615</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>45310</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44295.39846064815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>45501.47048611111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>44809.57108796296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>45523.34726851852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>44895</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>45747.32240740741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44420</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>45420.47038194445</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44914</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44914</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>45062.53523148148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>45670.42971064815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45698.63383101852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45518.42835648148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>45887.41387731482</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45198.61319444444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45424.71232638889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45559.65771990741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>45457.4087037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44909.52246527778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44859.5005787037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>45578</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44987.47634259259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>45446.64342592593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44477</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>45172</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>45175</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>45800</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>45723</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>45884.31744212963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>45804.66270833334</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>44355</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>45642.44747685185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45264</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45644.46488425926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45818.5778587963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45804.60523148148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45578</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44630</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>45810.47641203704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>45698.44792824074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>45891.50084490741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45891.50685185185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>45558.64694444444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>45006</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>45891.50247685185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45891.50767361111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45891.50608796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>45734.70346064815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>45224</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>45163</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>45789.68395833333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45897.50523148148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45897.61613425926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>45897.61420138889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45789.67851851852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45818.58821759259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45897.46329861111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45429.53177083333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45525.60667824074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45764.39090277778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>45901.47142361111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45594</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45902.74388888889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45154</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45821</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45903.62934027778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>45821</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>45758.39491898148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45819</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45758.33210648148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45250.46398148148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45824.32958333333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45208</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>45229.34539351852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44333.3778125</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45907.84583333333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45910.44527777778</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>45839</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>45915.61997685185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>45916.53819444445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45916.54351851852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>45758.32903935185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45371.30335648148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>45831.438125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>45919.52307870371</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44617</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>45832.36197916666</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45582.40759259259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45922.70684027778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45757.37891203703</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44683.63802083334</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44683.64659722222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45925.50526620371</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>45925.50818287037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44494</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45378.32930555556</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45833.56387731482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45319.83835648148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45925.49875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>45925.49443287037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44473</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>45833</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45925.36806712963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45925.41173611111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45925.41668981482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>45925.50178240741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>45685.66700231482</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45835.45888888889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44734.54503472222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44410</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45565</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45463.32849537037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>45926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45562.5187037037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45407.85847222222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45063.66127314815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45931.88991898148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44312.37150462963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>45700.33427083334</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44937</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>45596.49901620371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45428.60715277777</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45840</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>45063</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45935</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>45936.3534375</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44371.32910879629</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>45936.34744212963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45936.34949074074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>45936.35192129629</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45467.37267361111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45427.36826388889</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45938.93008101852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45937.55707175926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45937.57471064815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>45840</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>45841.48256944444</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>45841</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>45938.42122685185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45124</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>45642.44887731481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>45162.39041666667</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45938.41104166667</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>45842.60398148148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>45408.52436342592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>45945</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>45945</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45082.4859375</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45846</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>45945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>45947.55684027778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45947.5597337963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45947.56268518518</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45846</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>45846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45846.71516203704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45947.57368055556</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45947.60856481481</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45946.46168981482</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>45848</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45848.49875</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>45946.45733796297</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45947.43714120371</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45947.44696759259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>45947.45814814815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>45947.4393287037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23606,7 +23606,7 @@
         <v>45947.4418287037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45950</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45784.63262731482</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>44434.61344907407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45861.43575231481</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>45950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>45950</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45950.88679398148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45953</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>45862.44722222222</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45715.60960648148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45751.38546296296</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45747.32092592592</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45952.58974537037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45952.59214120371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45867.38967592592</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>44776</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>45867.37467592592</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45198.62966435185</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45106.47424768518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>44792.48170138889</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>45957.67209490741</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45522</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>45957</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>45919</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>45610.5128587963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>45575</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>45777.60947916667</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45954.66931712963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45429</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45401.64273148148</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>45958</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>45764.46260416666</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>45764.50252314815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>45671.59190972222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>45589.541875</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45198</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>45077</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>45471.38782407407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         <v>45958</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>45198</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>45960.68148148148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45887.39440972222</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45467.36902777778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45789.68653935185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45887.38953703704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45964.3933912037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26462,7 +26462,7 @@
         <v>45125</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>45964.39109953704</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>44659.54976851852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45964.43033564815</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45412</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45964.38497685185</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45964.38748842593</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44883</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45562.51660879629</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27000,7 +27000,7 @@
         <v>45743</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>45819.39711805555</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>45121</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>45246</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27243,7 +27243,7 @@
         <v>45688.40648148148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27300,7 +27300,7 @@
         <v>45867.38560185185</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>45971.38480324074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45971.40157407407</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44895.57898148148</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45761.40799768519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45973.60090277778</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45973.64831018518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44412.58629629629</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45478</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>46017.81530092593</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45975.7069675926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45596.42756944444</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45975.65641203704</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45469.49113425926</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>44475</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44355.39248842592</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45753.88591435185</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44897</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45980.44607638889</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>45980.4499074074</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>45980.45153935185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28562,7 +28562,7 @@
         <v>44896</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>45462</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>45462</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>45981.4140162037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>45980.44828703703</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44778</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>45625</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>45985.44011574074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44316.39207175926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>46027.64334490741</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44261</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>45793</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44666</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>45568.63071759259</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>45987.63214120371</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>45106.50915509259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>45568.63368055555</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45428.47834490741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45986.62600694445</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>44845</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45427.36732638889</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44686</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44503</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>45763.88424768519</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>45208.3728587963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44966.71741898148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>45226.34015046297</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45397.46623842593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44496.40722222222</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45603.49738425926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>45140.84627314815</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45995.65111111111</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45751.44054398148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45338</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45520</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30647,7 +30647,7 @@
         <v>46038.35440972223</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30704,7 +30704,7 @@
         <v>46021</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30761,7 +30761,7 @@
         <v>45041</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>44427</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>45714.32489583334</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45588.38876157408</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30999,7 +30999,7 @@
         <v>44824</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31061,7 +31061,7 @@
         <v>44774</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>45034</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>46045.65584490741</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>44623</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>45433.99373842592</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>46027.45638888889</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45408.52369212963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>44834.62738425926</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45688.41621527778</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44803.5662962963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>46007</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>45593</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>46006.43310185185</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44888</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45771.449375</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>46009.67033564814</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>46051.50975694445</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>46008.4846412037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>46008.51363425926</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>46051.50493055556</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>46008.87181712963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>44842</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>46009.63863425926</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>45037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>45540.61754629629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>46010.51391203704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45188</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>45153</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>45470.68664351852</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>46036</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>46010.66137731481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45723</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>46057.6528587963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>46056</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>45021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>46043.33224537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>46056.40185185185</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45623</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45757.45488425926</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33369,7 +33369,7 @@
         <v>46059.32680555555</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         <v>45757.45799768518</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33488,7 +33488,7 @@
         <v>45484.47273148148</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33545,7 +33545,7 @@
         <v>45012</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33602,7 +33602,7 @@
         <v>44995</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>45771.54035879629</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>45408.52283564815</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44342</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>44950</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45481.97899305556</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45546.47719907408</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45173</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>44316</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34135,7 +34135,7 @@
         <v>44236</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34197,7 +34197,7 @@
         <v>44741.39358796296</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
         <v>44748.57469907407</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34316,7 +34316,7 @@
         <v>45545.75784722222</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34373,7 +34373,7 @@
         <v>45014.76135416667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34430,7 +34430,7 @@
         <v>45565</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34487,7 +34487,7 @@
         <v>45611</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34544,7 +34544,7 @@
         <v>44357</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34606,7 +34606,7 @@
         <v>45319.81171296296</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34663,7 +34663,7 @@
         <v>45224.68380787037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>44882.25943287037</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45420.56997685185</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>45625.52276620371</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>45377</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34963,7 +34963,7 @@
         <v>45163</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>45163.42113425926</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45579</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>45206.81862268518</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>45193.76826388889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44782</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45420.30623842592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         <v>45372</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35449,7 +35449,7 @@
         <v>45735.64283564815</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44383.35997685185</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44790.51493055555</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>45487.50223379629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35687,7 +35687,7 @@
         <v>45109.49123842592</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35744,7 +35744,7 @@
         <v>45490</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35801,7 +35801,7 @@
         <v>45408.52519675926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35863,7 +35863,7 @@
         <v>45600</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35920,7 +35920,7 @@
         <v>45754.57548611111</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35977,7 +35977,7 @@
         <v>44966.69384259259</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36034,7 +36034,7 @@
         <v>44966.70430555556</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         <v>45239</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36153,7 +36153,7 @@
         <v>45033.48502314815</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36210,7 +36210,7 @@
         <v>44813</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36272,7 +36272,7 @@
         <v>45763.80373842592</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44332.71596064815</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>45571.73517361111</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36453,7 +36453,7 @@
         <v>45154</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36510,7 +36510,7 @@
         <v>45477.41841435185</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>45106.49553240741</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36634,7 +36634,7 @@
         <v>44893</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36696,7 +36696,7 @@
         <v>45758.37951388889</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36753,7 +36753,7 @@
         <v>45018</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36810,7 +36810,7 @@
         <v>45308.8669212963</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36867,7 +36867,7 @@
         <v>45705.37003472223</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36924,7 +36924,7 @@
         <v>45153</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>45685.61693287037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>45517.54996527778</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>45477</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37202,7 +37202,7 @@
         <v>45601</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>45477.41465277778</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>45751.46453703703</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>45191.43945601852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>45644</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>45644.46756944444</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>45188</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37621,7 +37621,7 @@
         <v>45014</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37678,7 +37678,7 @@
         <v>45761.55462962963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37735,7 +37735,7 @@
         <v>45763.81319444445</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>45771.39299768519</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37859,7 +37859,7 @@
         <v>44886</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37921,7 +37921,7 @@
         <v>44415.96331018519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37978,7 +37978,7 @@
         <v>45763.91444444445</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>45766.80628472222</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44508</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>45092</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38221,7 +38221,7 @@
         <v>45131.44578703704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         <v>45747.42923611111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38340,7 +38340,7 @@
         <v>45397.4553125</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38397,7 +38397,7 @@
         <v>44966</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38454,7 +38454,7 @@
         <v>45723</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38516,7 +38516,7 @@
         <v>45572.44754629629</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38578,7 +38578,7 @@
         <v>45250</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38635,7 +38635,7 @@
         <v>45572.43074074074</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38692,7 +38692,7 @@
         <v>44916.55944444444</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38749,7 +38749,7 @@
         <v>44726</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>45775.8884375</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38868,7 +38868,7 @@
         <v>45777.40040509259</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38930,7 +38930,7 @@
         <v>45777.40322916667</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45777.41224537037</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39054,7 +39054,7 @@
         <v>45777.6196875</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39111,7 +39111,7 @@
         <v>45777.40454861111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>45777.39825231482</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>45562.64291666666</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>45463.32146990741</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45572.45065972222</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
         <v>45446.38172453704</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45600</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45786.60820601852</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39592,7 +39592,7 @@
         <v>45517.32456018519</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         <v>45566.66189814815</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39711,7 +39711,7 @@
         <v>45607.44939814815</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39768,7 +39768,7 @@
         <v>45786.34594907407</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39830,7 +39830,7 @@
         <v>45786.60678240741</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45559.66320601852</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>44415.9652662037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45600</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45792.56722222222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45503</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45797.62625</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45797.59802083333</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45527.44208333334</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>45594</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40415,7 +40415,7 @@
         <v>45796.67230324074</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45664.67826388889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45797.61049768519</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45761.36349537037</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>

--- a/Översikt SMEDJEBACKEN.xlsx
+++ b/Översikt SMEDJEBACKEN.xlsx
@@ -575,7 +575,7 @@
         <v>44441</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45869</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>45629</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>45691</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45453</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45140.8359375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45833</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         <v>45862.44428240741</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45960.39149305555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45722.35415509259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>45967</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45049.84429398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44455.63979166667</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>45454</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
         <v>45946.45868055556</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44909</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>44420</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>45763.75976851852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44482</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44321</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
         <v>45063</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45517.53916666667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>44432</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>44829.83217592593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>45420.29810185185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45540</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>45225</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>45653.4256712963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>45225</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44826</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45945</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>45726</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45401.2678125</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45999.44971064815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45607</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
         <v>46009.62458333333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44476</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         <v>45063</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>45226.58356481481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>45553.40890046296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>45441.56653935185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>45109</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>45579.39178240741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45609</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         <v>45517.37303240741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>45527</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>45785.64866898148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>44882.2475462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>44329.35565972222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44316</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44417.59931712963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44613.67759259259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>44377.67195601852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         <v>44414</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44787</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44414</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44453</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>44571</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44355.38730324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>44735</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44809.39690972222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>44803.5709375</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>44264.3809837963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         <v>44462</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44305</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>44496</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>44691.324375</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>44278.85092592592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         <v>44641.34217592593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>44261</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>44861</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         <v>44342.57887731482</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>44776</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44307</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>44713</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         <v>44809.39892361111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44637.62076388889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44706</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44735.57864583333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44342</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44876.60767361111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         <v>44260</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
         <v>44312.37478009259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         <v>44410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44496.44542824074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>44291</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44832</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>44342.64690972222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>44475.49350694445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>44414</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>44321</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>44321.48372685185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44461</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44826</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44434.62304398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44286.46900462963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44260</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44440</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>44431</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>44537.69876157407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44509.39956018519</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44563</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>44563</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44791.8230787037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>44298.36966435185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>44467.60453703703</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44496</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44390.62594907408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44424</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44656.67989583333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44509.40319444444</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44525</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44734.54008101852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44608</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>44790</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44305</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44799</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>44434</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
         <v>44496.40109953703</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44442.39803240741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44496</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>44804.87157407407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>44308.45027777777</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44442.39701388889</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9926,7 +9926,7 @@
         <v>44778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9983,7 +9983,7 @@
         <v>44784.70158564814</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>44630</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44803.57310185185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>44714</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>44403</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44496</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44861</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44811</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44876.95594907407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44545.57009259259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44469</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44574</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44434</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44434.63518518519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44770.43327546296</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44531.80703703704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44319</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44792.4921412037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44791.67481481482</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>44581</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>44831</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>45429.40702546296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>45469.48158564815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>45462</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44880.39084490741</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11567,7 +11567,7 @@
         <v>44876.94532407408</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11624,7 +11624,7 @@
         <v>45517.56828703704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>45153</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>44718</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44855</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>45107.56135416667</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>45527</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>45252</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>45205.48114583334</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44515</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>44683.53989583333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>45219.38086805555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>45684.52469907407</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>44700</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>45019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>44776</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>44414</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         <v>45517.56021990741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>44496</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45172</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>44914</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45757.37561342592</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>45588.38447916666</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12923,7 +12923,7 @@
         <v>45588.3869212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>44860.72960648148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>44568</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>45064</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         <v>45615</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>45310</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>44295.39846064815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>45501.47048611111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         <v>44809.57108796296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         <v>45523.34726851852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>44895</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>45747.32240740741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         <v>44420</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>45420.47038194445</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         <v>44914</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>44914</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         <v>45062.53523148148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         <v>45670.42971064815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>45698.63383101852</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
         <v>45518.42835648148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>45887.41387731482</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>45198.61319444444</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45424.71232638889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45559.65771990741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>45457.4087037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44909.52246527778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44859.5005787037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>45578</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44987.47634259259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>45446.64342592593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>44477</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>45172</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>45175</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>45800</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>45723</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>45884.31744212963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>45804.66270833334</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>44355</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>45642.44747685185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45264</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45644.46488425926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45818.5778587963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45804.60523148148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>45578</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44630</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>45810.47641203704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>45698.44792824074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>45891.50084490741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45891.50685185185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>45558.64694444444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>45006</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>45891.50247685185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45891.50767361111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45891.50608796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>45734.70346064815</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>45224</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>45163</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>45789.68395833333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45897.50523148148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45897.61613425926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>45897.61420138889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>45789.67851851852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>45818.58821759259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>45897.46329861111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>45429.53177083333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>45525.60667824074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45764.39090277778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>45901.47142361111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45594</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>45902.74388888889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45154</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45821</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45903.62934027778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>45821</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>45758.39491898148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>45819</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45758.33210648148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>45250.46398148148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>45824.32958333333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>45208</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>45229.34539351852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44333.3778125</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45907.84583333333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45910.44527777778</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>45839</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>45915.61997685185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>45916.53819444445</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45916.54351851852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>45758.32903935185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45371.30335648148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>45831.438125</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>45919.52307870371</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>44617</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>45832.36197916666</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>45582.40759259259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45922.70684027778</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45757.37891203703</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44683.63802083334</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44683.64659722222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>45925.50526620371</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>45925.50818287037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44494</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19116,7 +19116,7 @@
         <v>45378.32930555556</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45833.56387731482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         <v>44890</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         <v>45319.83835648148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>45925.49875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19406,7 +19406,7 @@
         <v>45925.49443287037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
         <v>44473</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19520,7 +19520,7 @@
         <v>45833</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19577,7 +19577,7 @@
         <v>45925.36806712963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
         <v>45925.41173611111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19691,7 +19691,7 @@
         <v>45925.41668981482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>45925.50178240741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>45685.66700231482</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>45835.45888888889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44734.54503472222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44410</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>45565</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45463.32849537037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>45926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45562.5187037037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>45407.85847222222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>45063.66127314815</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>45931.88991898148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>44312.37150462963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>45700.33427083334</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44937</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>45596.49901620371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45428.60715277777</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45840</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>45063</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45935</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>45936.3534375</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20995,7 +20995,7 @@
         <v>44371.32910879629</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>45936.34744212963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45936.34949074074</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>45936.35192129629</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21243,7 +21243,7 @@
         <v>45467.37267361111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>45427.36826388889</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45938.93008101852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>45937.55707175926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45937.57471064815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>44477</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>45840</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>45841.48256944444</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21796,7 +21796,7 @@
         <v>45841</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>45938.42122685185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>45124</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>45642.44887731481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>45162.39041666667</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45938.41104166667</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>45842.60398148148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>45408.52436342592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         <v>45945</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>45945</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45082.4859375</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45846</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45454</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>45945</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>45947.55684027778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45947.5597337963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45947.56268518518</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45846</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>45846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45846.71516203704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45947.57368055556</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45947.60856481481</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45946.46168981482</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>45848</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23239,7 +23239,7 @@
         <v>45848.49875</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23296,7 +23296,7 @@
         <v>45946.45733796297</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45947.43714120371</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45947.44696759259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>45947.45814814815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>45947.4393287037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23606,7 +23606,7 @@
         <v>45947.4418287037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45950</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45784.63262731482</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>44434.61344907407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45861.43575231481</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>45950</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         <v>45950</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45950.88679398148</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45953</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>45862.44722222222</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45715.60960648148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45751.38546296296</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45747.32092592592</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45952.58974537037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45952.59214120371</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45867.38967592592</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>44776</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>45867.37467592592</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45198.62966435185</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45106.47424768518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>44792.48170138889</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>45957.67209490741</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45522</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>45957</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>45919</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44888</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>45610.5128587963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>45575</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>45777.60947916667</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45954.66931712963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45429</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45401.64273148148</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>45958</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>45764.46260416666</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>45764.50252314815</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>45671.59190972222</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>45589.541875</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45198</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>45077</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25919,7 +25919,7 @@
         <v>45471.38782407407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25976,7 +25976,7 @@
         <v>45958</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26038,7 +26038,7 @@
         <v>45198</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>45960.68148148148</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45887.39440972222</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>45467.36902777778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45789.68653935185</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>45887.38953703704</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45964.3933912037</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26462,7 +26462,7 @@
         <v>45125</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26519,7 +26519,7 @@
         <v>45964.39109953704</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26581,7 +26581,7 @@
         <v>44659.54976851852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26638,7 +26638,7 @@
         <v>45964.43033564815</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45412</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45964.38497685185</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45964.38748842593</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44883</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45562.51660879629</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27000,7 +27000,7 @@
         <v>45743</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>45819.39711805555</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>45121</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>45246</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27243,7 +27243,7 @@
         <v>45688.40648148148</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27300,7 +27300,7 @@
         <v>45867.38560185185</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>45971.38480324074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         <v>45971.40157407407</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         <v>44895.57898148148</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>45761.40799768519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>45973.60090277778</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27657,7 +27657,7 @@
         <v>45973.64831018518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44412.58629629629</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45478</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>46017.81530092593</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45975.7069675926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45596.42756944444</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45975.65641203704</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45469.49113425926</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>44475</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>44355.39248842592</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45753.88591435185</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44897</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28376,7 +28376,7 @@
         <v>45980.44607638889</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>45980.4499074074</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>45980.45153935185</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28562,7 +28562,7 @@
         <v>44896</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28619,7 +28619,7 @@
         <v>45462</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28676,7 +28676,7 @@
         <v>45462</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28733,7 +28733,7 @@
         <v>45981.4140162037</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28790,7 +28790,7 @@
         <v>45980.44828703703</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28852,7 +28852,7 @@
         <v>44778</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>45625</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>45985.44011574074</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44316.39207175926</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>46027.64334490741</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44261</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>45793</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>44666</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>45568.63071759259</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>45987.63214120371</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>45106.50915509259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29499,7 +29499,7 @@
         <v>45568.63368055555</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>45428.47834490741</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45986.62600694445</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>44845</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45427.36732638889</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44686</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44503</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>45763.88424768519</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29990,7 +29990,7 @@
         <v>45208.3728587963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30047,7 +30047,7 @@
         <v>44966.71741898148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30104,7 +30104,7 @@
         <v>45226.34015046297</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45397.46623842593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>44496.40722222222</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30290,7 +30290,7 @@
         <v>45603.49738425926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>45140.84627314815</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45995.65111111111</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45751.44054398148</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>45338</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
         <v>45520</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30647,7 +30647,7 @@
         <v>46038.35440972223</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30704,7 +30704,7 @@
         <v>46021</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30761,7 +30761,7 @@
         <v>45041</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30818,7 +30818,7 @@
         <v>44427</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>45714.32489583334</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45588.38876157408</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30999,7 +30999,7 @@
         <v>44824</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31061,7 +31061,7 @@
         <v>44774</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31118,7 +31118,7 @@
         <v>45034</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>46045.65584490741</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>44623</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>45433.99373842592</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>46027.45638888889</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45408.52369212963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>44834.62738425926</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45688.41621527778</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>44803.5662962963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>46007</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>45593</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31765,7 +31765,7 @@
         <v>46006.43310185185</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44888</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45771.449375</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>46009.67033564814</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>46051.50975694445</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>46008.4846412037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>46008.51363425926</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32184,7 +32184,7 @@
         <v>46051.50493055556</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>46008.87181712963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>44842</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>46009.63863425926</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>45037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>45540.61754629629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>46010.51391203704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45188</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>45153</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>45470.68664351852</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>46036</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>46010.66137731481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45723</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>46057.6528587963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>46056</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>45021</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33131,7 +33131,7 @@
         <v>46043.33224537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>46056.40185185185</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45623</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45757.45488425926</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33369,7 +33369,7 @@
         <v>46059.32680555555</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         <v>45757.45799768518</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33488,7 +33488,7 @@
         <v>45484.47273148148</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33545,7 +33545,7 @@
         <v>45012</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33602,7 +33602,7 @@
         <v>44995</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>45771.54035879629</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33721,7 +33721,7 @@
         <v>45408.52283564815</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33783,7 +33783,7 @@
         <v>44342</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>44950</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45481.97899305556</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45546.47719907408</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45173</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>44316</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34135,7 +34135,7 @@
         <v>44236</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34197,7 +34197,7 @@
         <v>44741.39358796296</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
         <v>44748.57469907407</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34316,7 +34316,7 @@
         <v>45545.75784722222</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34373,7 +34373,7 @@
         <v>45014.76135416667</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34430,7 +34430,7 @@
         <v>45565</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34487,7 +34487,7 @@
         <v>45611</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34544,7 +34544,7 @@
         <v>44357</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34606,7 +34606,7 @@
         <v>45319.81171296296</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34663,7 +34663,7 @@
         <v>45224.68380787037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>44882.25943287037</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45420.56997685185</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>45625.52276620371</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>45377</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34963,7 +34963,7 @@
         <v>45163</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>45163.42113425926</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35087,7 +35087,7 @@
         <v>45579</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>45206.81862268518</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>45193.76826388889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44782</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45420.30623842592</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         <v>45372</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35449,7 +35449,7 @@
         <v>45735.64283564815</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>44383.35997685185</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>44790.51493055555</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35630,7 +35630,7 @@
         <v>45487.50223379629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35687,7 +35687,7 @@
         <v>45109.49123842592</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35744,7 +35744,7 @@
         <v>45490</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35801,7 +35801,7 @@
         <v>45408.52519675926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35863,7 +35863,7 @@
         <v>45600</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35920,7 +35920,7 @@
         <v>45754.57548611111</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35977,7 +35977,7 @@
         <v>44966.69384259259</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36034,7 +36034,7 @@
         <v>44966.70430555556</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         <v>45239</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36153,7 +36153,7 @@
         <v>45033.48502314815</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36210,7 +36210,7 @@
         <v>44813</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36272,7 +36272,7 @@
         <v>45763.80373842592</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36334,7 +36334,7 @@
         <v>44332.71596064815</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36391,7 +36391,7 @@
         <v>45571.73517361111</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36453,7 +36453,7 @@
         <v>45154</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36510,7 +36510,7 @@
         <v>45477.41841435185</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>45106.49553240741</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36634,7 +36634,7 @@
         <v>44893</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36696,7 +36696,7 @@
         <v>45758.37951388889</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36753,7 +36753,7 @@
         <v>45018</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36810,7 +36810,7 @@
         <v>45308.8669212963</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36867,7 +36867,7 @@
         <v>45705.37003472223</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36924,7 +36924,7 @@
         <v>45153</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>45685.61693287037</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>45517.54996527778</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>45477</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37202,7 +37202,7 @@
         <v>45601</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>45477.41465277778</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>45751.46453703703</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>45191.43945601852</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37445,7 +37445,7 @@
         <v>45644</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37502,7 +37502,7 @@
         <v>45644.46756944444</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37559,7 +37559,7 @@
         <v>45188</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37621,7 +37621,7 @@
         <v>45014</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37678,7 +37678,7 @@
         <v>45761.55462962963</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37735,7 +37735,7 @@
         <v>45763.81319444445</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37797,7 +37797,7 @@
         <v>45771.39299768519</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37859,7 +37859,7 @@
         <v>44886</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37921,7 +37921,7 @@
         <v>44415.96331018519</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37978,7 +37978,7 @@
         <v>45763.91444444445</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>45766.80628472222</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>44508</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>45092</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38221,7 +38221,7 @@
         <v>45131.44578703704</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         <v>45747.42923611111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38340,7 +38340,7 @@
         <v>45397.4553125</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38397,7 +38397,7 @@
         <v>44966</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38454,7 +38454,7 @@
         <v>45723</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38516,7 +38516,7 @@
         <v>45572.44754629629</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38578,7 +38578,7 @@
         <v>45250</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38635,7 +38635,7 @@
         <v>45572.43074074074</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38692,7 +38692,7 @@
         <v>44916.55944444444</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38749,7 +38749,7 @@
         <v>44726</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>45775.8884375</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38868,7 +38868,7 @@
         <v>45777.40040509259</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38930,7 +38930,7 @@
         <v>45777.40322916667</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45777.41224537037</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39054,7 +39054,7 @@
         <v>45777.6196875</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39111,7 +39111,7 @@
         <v>45777.40454861111</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39173,7 +39173,7 @@
         <v>45777.39825231482</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>45562.64291666666</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>45463.32146990741</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45572.45065972222</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
         <v>45446.38172453704</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45600</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39530,7 +39530,7 @@
         <v>45786.60820601852</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39592,7 +39592,7 @@
         <v>45517.32456018519</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39654,7 +39654,7 @@
         <v>45566.66189814815</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39711,7 +39711,7 @@
         <v>45607.44939814815</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39768,7 +39768,7 @@
         <v>45786.34594907407</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39830,7 +39830,7 @@
         <v>45786.60678240741</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>45559.66320601852</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39949,7 +39949,7 @@
         <v>44415.9652662037</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
         <v>45600</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40063,7 +40063,7 @@
         <v>45792.56722222222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40120,7 +40120,7 @@
         <v>45503</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40177,7 +40177,7 @@
         <v>45797.62625</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45797.59802083333</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40291,7 +40291,7 @@
         <v>45527.44208333334</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40353,7 +40353,7 @@
         <v>45594</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40415,7 +40415,7 @@
         <v>45796.67230324074</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45664.67826388889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45797.61049768519</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45761.36349537037</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
